--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3315.168786924435</v>
+        <v>3628.298971319241</v>
       </c>
       <c r="AB2" t="n">
-        <v>4535.960189194996</v>
+        <v>4964.398721812762</v>
       </c>
       <c r="AC2" t="n">
-        <v>4103.054514998164</v>
+        <v>4490.603475380132</v>
       </c>
       <c r="AD2" t="n">
-        <v>3315168.786924435</v>
+        <v>3628298.971319241</v>
       </c>
       <c r="AE2" t="n">
-        <v>4535960.189194996</v>
+        <v>4964398.721812762</v>
       </c>
       <c r="AF2" t="n">
         <v>2.576522307840448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4103054.514998164</v>
+        <v>4490603.475380132</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1183.6327118993</v>
+        <v>1349.901922849956</v>
       </c>
       <c r="AB3" t="n">
-        <v>1619.498494610497</v>
+        <v>1846.995364313073</v>
       </c>
       <c r="AC3" t="n">
-        <v>1464.935831265283</v>
+        <v>1670.720719017308</v>
       </c>
       <c r="AD3" t="n">
-        <v>1183632.7118993</v>
+        <v>1349901.922849956</v>
       </c>
       <c r="AE3" t="n">
-        <v>1619498.494610497</v>
+        <v>1846995.364313073</v>
       </c>
       <c r="AF3" t="n">
         <v>4.82984927355705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.49583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1464935.831265284</v>
+        <v>1670720.719017308</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>893.878375517874</v>
+        <v>1030.917673302751</v>
       </c>
       <c r="AB4" t="n">
-        <v>1223.043828514292</v>
+        <v>1410.547041490691</v>
       </c>
       <c r="AC4" t="n">
-        <v>1106.318242073681</v>
+        <v>1275.926411566025</v>
       </c>
       <c r="AD4" t="n">
-        <v>893878.375517874</v>
+        <v>1030917.673302751</v>
       </c>
       <c r="AE4" t="n">
-        <v>1223043.828514292</v>
+        <v>1410547.041490691</v>
       </c>
       <c r="AF4" t="n">
         <v>5.687936673741339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.59166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1106318.242073681</v>
+        <v>1275926.411566025</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>780.1695779880819</v>
+        <v>917.1405449353971</v>
       </c>
       <c r="AB5" t="n">
-        <v>1067.462435255929</v>
+        <v>1254.872154965832</v>
       </c>
       <c r="AC5" t="n">
-        <v>965.5853186280392</v>
+        <v>1135.108917720024</v>
       </c>
       <c r="AD5" t="n">
-        <v>780169.5779880818</v>
+        <v>917140.5449353971</v>
       </c>
       <c r="AE5" t="n">
-        <v>1067462.435255928</v>
+        <v>1254872.154965832</v>
       </c>
       <c r="AF5" t="n">
         <v>6.081572026328074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>965585.3186280392</v>
+        <v>1135108.917720024</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>769.3964319353774</v>
+        <v>896.647208449906</v>
       </c>
       <c r="AB6" t="n">
-        <v>1052.722141548958</v>
+        <v>1226.832267884186</v>
       </c>
       <c r="AC6" t="n">
-        <v>952.2518178643298</v>
+        <v>1109.745118107221</v>
       </c>
       <c r="AD6" t="n">
-        <v>769396.4319353774</v>
+        <v>896647.208449906</v>
       </c>
       <c r="AE6" t="n">
-        <v>1052722.141548958</v>
+        <v>1226832.267884186</v>
       </c>
       <c r="AF6" t="n">
         <v>6.134684547586189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>952251.8178643298</v>
+        <v>1109745.118107221</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>771.6371088911638</v>
+        <v>898.8878854056923</v>
       </c>
       <c r="AB7" t="n">
-        <v>1055.787934611556</v>
+        <v>1229.898060946784</v>
       </c>
       <c r="AC7" t="n">
-        <v>955.0250159399009</v>
+        <v>1112.518316182792</v>
       </c>
       <c r="AD7" t="n">
-        <v>771637.1088911638</v>
+        <v>898887.8854056923</v>
       </c>
       <c r="AE7" t="n">
-        <v>1055787.934611556</v>
+        <v>1229898.060946784</v>
       </c>
       <c r="AF7" t="n">
         <v>6.135061232134118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>955025.0159399009</v>
+        <v>1112518.316182791</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2057.690910070416</v>
+        <v>2299.63630798556</v>
       </c>
       <c r="AB2" t="n">
-        <v>2815.423482074441</v>
+        <v>3146.463849379753</v>
       </c>
       <c r="AC2" t="n">
-        <v>2546.72341641693</v>
+        <v>2846.169755684579</v>
       </c>
       <c r="AD2" t="n">
-        <v>2057690.910070416</v>
+        <v>2299636.30798556</v>
       </c>
       <c r="AE2" t="n">
-        <v>2815423.482074441</v>
+        <v>3146463.849379753</v>
       </c>
       <c r="AF2" t="n">
         <v>3.600649351675085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.69583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2546723.416416931</v>
+        <v>2846169.755684579</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>926.690078004995</v>
+        <v>1071.796830030132</v>
       </c>
       <c r="AB3" t="n">
-        <v>1267.938247407321</v>
+        <v>1466.479707186206</v>
       </c>
       <c r="AC3" t="n">
-        <v>1146.928000637273</v>
+        <v>1326.52094214955</v>
       </c>
       <c r="AD3" t="n">
-        <v>926690.078004995</v>
+        <v>1071796.830030132</v>
       </c>
       <c r="AE3" t="n">
-        <v>1267938.247407321</v>
+        <v>1466479.707186206</v>
       </c>
       <c r="AF3" t="n">
         <v>5.836217355737088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>1146928.000637273</v>
+        <v>1326520.94214955</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>748.4486910016658</v>
+        <v>874.2285101453668</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.060518254347</v>
+        <v>1196.158015820749</v>
       </c>
       <c r="AC4" t="n">
-        <v>926.3256196701154</v>
+        <v>1081.998373609135</v>
       </c>
       <c r="AD4" t="n">
-        <v>748448.6910016658</v>
+        <v>874228.5101453669</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024060.518254347</v>
+        <v>1196158.015820749</v>
       </c>
       <c r="AF4" t="n">
         <v>6.545548575315021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2375</v>
       </c>
       <c r="AH4" t="n">
-        <v>926325.6196701154</v>
+        <v>1081998.373609135</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>743.0138309322119</v>
+        <v>868.7936500759131</v>
       </c>
       <c r="AB5" t="n">
-        <v>1016.624302938216</v>
+        <v>1188.721800504618</v>
       </c>
       <c r="AC5" t="n">
-        <v>919.5991063069624</v>
+        <v>1075.271860245982</v>
       </c>
       <c r="AD5" t="n">
-        <v>743013.8309322119</v>
+        <v>868793.6500759131</v>
       </c>
       <c r="AE5" t="n">
-        <v>1016624.302938216</v>
+        <v>1188721.800504618</v>
       </c>
       <c r="AF5" t="n">
         <v>6.587176961821338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.07083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>919599.1063069624</v>
+        <v>1075271.860245982</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.3023384136076</v>
+        <v>880.5672447018011</v>
       </c>
       <c r="AB2" t="n">
-        <v>1012.914319251654</v>
+        <v>1204.830952086095</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.2431982564511</v>
+        <v>1089.843577009859</v>
       </c>
       <c r="AD2" t="n">
-        <v>740302.3384136076</v>
+        <v>880567.2447018011</v>
       </c>
       <c r="AE2" t="n">
-        <v>1012914.319251654</v>
+        <v>1204830.952086095</v>
       </c>
       <c r="AF2" t="n">
         <v>7.932086578606153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>916243.1982564512</v>
+        <v>1089843.577009859</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>711.1428596898147</v>
+        <v>851.4750857857124</v>
       </c>
       <c r="AB3" t="n">
-        <v>973.0170340363507</v>
+        <v>1165.025776801633</v>
       </c>
       <c r="AC3" t="n">
-        <v>880.1536539459049</v>
+        <v>1053.837351787632</v>
       </c>
       <c r="AD3" t="n">
-        <v>711142.8596898147</v>
+        <v>851475.0857857123</v>
       </c>
       <c r="AE3" t="n">
-        <v>973017.0340363507</v>
+        <v>1165025.776801633</v>
       </c>
       <c r="AF3" t="n">
         <v>8.115603812329344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>880153.6539459049</v>
+        <v>1053837.351787632</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1036.831573648188</v>
+        <v>1207.382185315542</v>
       </c>
       <c r="AB2" t="n">
-        <v>1418.638700846187</v>
+        <v>1651.993571891419</v>
       </c>
       <c r="AC2" t="n">
-        <v>1283.245814309349</v>
+        <v>1494.329623977642</v>
       </c>
       <c r="AD2" t="n">
-        <v>1036831.573648188</v>
+        <v>1207382.185315542</v>
       </c>
       <c r="AE2" t="n">
-        <v>1418638.700846188</v>
+        <v>1651993.571891419</v>
       </c>
       <c r="AF2" t="n">
         <v>6.025230141260392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.45416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1283245.814309349</v>
+        <v>1494329.623977642</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.5709466578694</v>
+        <v>838.3269284565738</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.3932968105888</v>
+        <v>1147.035887888142</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.2575155009874</v>
+        <v>1037.564392623077</v>
       </c>
       <c r="AD3" t="n">
-        <v>705570.9466578694</v>
+        <v>838326.9284565737</v>
       </c>
       <c r="AE3" t="n">
-        <v>965393.2968105888</v>
+        <v>1147035.887888142</v>
       </c>
       <c r="AF3" t="n">
         <v>7.503389379652948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>873257.5155009874</v>
+        <v>1037564.392623077</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.6893056431959</v>
+        <v>840.4452874419002</v>
       </c>
       <c r="AB4" t="n">
-        <v>968.2917290297153</v>
+        <v>1149.934320107268</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.8793254170955</v>
+        <v>1040.186202539185</v>
       </c>
       <c r="AD4" t="n">
-        <v>707689.3056431959</v>
+        <v>840445.2874419002</v>
       </c>
       <c r="AE4" t="n">
-        <v>968291.7290297153</v>
+        <v>1149934.320107268</v>
       </c>
       <c r="AF4" t="n">
         <v>7.509865978944861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>875879.3254170956</v>
+        <v>1040186.202539185</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.6223588557893</v>
+        <v>886.5749301069196</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.61569710518</v>
+        <v>1213.050932297752</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.1639533815001</v>
+        <v>1097.279053846931</v>
       </c>
       <c r="AD2" t="n">
-        <v>738622.3588557893</v>
+        <v>886574.9301069196</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010615.69710518</v>
+        <v>1213050.932297752</v>
       </c>
       <c r="AF2" t="n">
         <v>8.565897996595871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>914163.9533815001</v>
+        <v>1097279.053846931</v>
       </c>
     </row>
     <row r="3">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.8620631916474</v>
+        <v>890.8146344427778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.416647620055</v>
+        <v>1218.851882812628</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.4112693209213</v>
+        <v>1102.526369786352</v>
       </c>
       <c r="AD3" t="n">
-        <v>742862.0631916474</v>
+        <v>890814.6344427778</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016416.647620055</v>
+        <v>1218851.882812628</v>
       </c>
       <c r="AF3" t="n">
         <v>8.565897996595871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>919411.2693209213</v>
+        <v>1102526.369786352</v>
       </c>
     </row>
   </sheetData>
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2302.448924381342</v>
+        <v>2554.745419905572</v>
       </c>
       <c r="AB2" t="n">
-        <v>3150.312195216339</v>
+        <v>3495.51539092844</v>
       </c>
       <c r="AC2" t="n">
-        <v>2849.650820795708</v>
+        <v>3161.908308004761</v>
       </c>
       <c r="AD2" t="n">
-        <v>2302448.924381342</v>
+        <v>2554745.419905572</v>
       </c>
       <c r="AE2" t="n">
-        <v>3150312.195216339</v>
+        <v>3495515.390928439</v>
       </c>
       <c r="AF2" t="n">
         <v>3.322619235184597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2849650.820795708</v>
+        <v>3161908.308004761</v>
       </c>
     </row>
     <row r="3">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>989.6077423663654</v>
+        <v>1135.174353041063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1354.024971517999</v>
+        <v>1553.195630188744</v>
       </c>
       <c r="AC3" t="n">
-        <v>1224.798728622303</v>
+        <v>1404.960819167288</v>
       </c>
       <c r="AD3" t="n">
-        <v>989607.7423663654</v>
+        <v>1135174.353041063</v>
       </c>
       <c r="AE3" t="n">
-        <v>1354024.971517999</v>
+        <v>1553195.630188744</v>
       </c>
       <c r="AF3" t="n">
         <v>5.558077134852433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1224798.728622303</v>
+        <v>1404960.819167288</v>
       </c>
     </row>
     <row r="4">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>771.0854715081218</v>
+        <v>897.2342247851655</v>
       </c>
       <c r="AB4" t="n">
-        <v>1055.033160007554</v>
+        <v>1227.635449531421</v>
       </c>
       <c r="AC4" t="n">
-        <v>954.3422759647721</v>
+        <v>1110.471645225316</v>
       </c>
       <c r="AD4" t="n">
-        <v>771085.4715081218</v>
+        <v>897234.2247851654</v>
       </c>
       <c r="AE4" t="n">
-        <v>1055033.160007554</v>
+        <v>1227635.449531421</v>
       </c>
       <c r="AF4" t="n">
         <v>6.358465983420082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>954342.2759647721</v>
+        <v>1110471.645225316</v>
       </c>
     </row>
     <row r="5">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>743.309156311495</v>
+        <v>879.1658272575082</v>
       </c>
       <c r="AB5" t="n">
-        <v>1017.028380150987</v>
+        <v>1202.913470912639</v>
       </c>
       <c r="AC5" t="n">
-        <v>919.9646189576728</v>
+        <v>1088.109097548396</v>
       </c>
       <c r="AD5" t="n">
-        <v>743309.156311495</v>
+        <v>879165.8272575082</v>
       </c>
       <c r="AE5" t="n">
-        <v>1017028.380150987</v>
+        <v>1202913.470912639</v>
       </c>
       <c r="AF5" t="n">
         <v>6.457408524499299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.95416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>919964.6189576727</v>
+        <v>1088109.097548396</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>768.8737272973646</v>
+        <v>925.0282196628447</v>
       </c>
       <c r="AB2" t="n">
-        <v>1052.006954003128</v>
+        <v>1265.664419507576</v>
       </c>
       <c r="AC2" t="n">
-        <v>951.6048868141015</v>
+        <v>1144.871183680941</v>
       </c>
       <c r="AD2" t="n">
-        <v>768873.7272973645</v>
+        <v>925028.2196628447</v>
       </c>
       <c r="AE2" t="n">
-        <v>1052006.954003128</v>
+        <v>1265664.419507576</v>
       </c>
       <c r="AF2" t="n">
         <v>8.754794175917688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>951604.8868141015</v>
+        <v>1144871.183680941</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1471.877079560148</v>
+        <v>1673.098748370336</v>
       </c>
       <c r="AB2" t="n">
-        <v>2013.887154888088</v>
+        <v>2289.207519427689</v>
       </c>
       <c r="AC2" t="n">
-        <v>1821.684591333943</v>
+        <v>2070.728766696443</v>
       </c>
       <c r="AD2" t="n">
-        <v>1471877.079560148</v>
+        <v>1673098.748370336</v>
       </c>
       <c r="AE2" t="n">
-        <v>2013887.154888088</v>
+        <v>2289207.519427689</v>
       </c>
       <c r="AF2" t="n">
         <v>4.61480426285341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1821684.591333943</v>
+        <v>2070728.766696442</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>761.0344333014247</v>
+        <v>895.1711610452421</v>
       </c>
       <c r="AB3" t="n">
-        <v>1041.28088611264</v>
+        <v>1224.812674706509</v>
       </c>
       <c r="AC3" t="n">
-        <v>941.9024997889513</v>
+        <v>1107.918272067905</v>
       </c>
       <c r="AD3" t="n">
-        <v>761034.4333014246</v>
+        <v>895171.1610452421</v>
       </c>
       <c r="AE3" t="n">
-        <v>1041280.88611264</v>
+        <v>1224812.674706509</v>
       </c>
       <c r="AF3" t="n">
         <v>6.796046600165981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>941902.4997889514</v>
+        <v>1107918.272067905</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>717.0847124982164</v>
+        <v>851.2887600497385</v>
       </c>
       <c r="AB4" t="n">
-        <v>981.146939184851</v>
+        <v>1164.770837709562</v>
       </c>
       <c r="AC4" t="n">
-        <v>887.5076523574262</v>
+        <v>1053.606743724698</v>
       </c>
       <c r="AD4" t="n">
-        <v>717084.7124982164</v>
+        <v>851288.7600497385</v>
       </c>
       <c r="AE4" t="n">
-        <v>981146.939184851</v>
+        <v>1164770.837709562</v>
       </c>
       <c r="AF4" t="n">
         <v>7.003101040239621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>887507.6523574262</v>
+        <v>1053606.743724698</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1839.552791688154</v>
+        <v>2061.426386430557</v>
       </c>
       <c r="AB2" t="n">
-        <v>2516.957284929245</v>
+        <v>2820.534525627972</v>
       </c>
       <c r="AC2" t="n">
-        <v>2276.742414227333</v>
+        <v>2551.346669147108</v>
       </c>
       <c r="AD2" t="n">
-        <v>1839552.791688154</v>
+        <v>2061426.386430557</v>
       </c>
       <c r="AE2" t="n">
-        <v>2516957.284929245</v>
+        <v>2820534.525627973</v>
       </c>
       <c r="AF2" t="n">
         <v>3.914746009197778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.02916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2276742.414227333</v>
+        <v>2551346.669147108</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>865.7895985198295</v>
+        <v>1010.521789602498</v>
       </c>
       <c r="AB3" t="n">
-        <v>1184.611524636184</v>
+        <v>1382.640493609121</v>
       </c>
       <c r="AC3" t="n">
-        <v>1071.553863337622</v>
+        <v>1250.683225447186</v>
       </c>
       <c r="AD3" t="n">
-        <v>865789.5985198295</v>
+        <v>1010521.789602498</v>
       </c>
       <c r="AE3" t="n">
-        <v>1184611.524636184</v>
+        <v>1382640.493609121</v>
       </c>
       <c r="AF3" t="n">
         <v>6.133130283266629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1071553.863337622</v>
+        <v>1250683.225447186</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.4117820041795</v>
+        <v>861.8086378310642</v>
       </c>
       <c r="AB4" t="n">
-        <v>1007.591088333039</v>
+        <v>1179.164598594225</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.4280090255073</v>
+        <v>1066.626784272299</v>
       </c>
       <c r="AD4" t="n">
-        <v>736411.7820041794</v>
+        <v>861808.6378310642</v>
       </c>
       <c r="AE4" t="n">
-        <v>1007591.088333039</v>
+        <v>1179164.598594225</v>
       </c>
       <c r="AF4" t="n">
         <v>6.701263403036742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.30416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>911428.0090255074</v>
+        <v>1066626.784272299</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.1663126946308</v>
+        <v>862.5631685215158</v>
       </c>
       <c r="AB5" t="n">
-        <v>1008.623470511259</v>
+        <v>1180.196980772445</v>
       </c>
       <c r="AC5" t="n">
-        <v>912.361862097596</v>
+        <v>1067.560637344388</v>
       </c>
       <c r="AD5" t="n">
-        <v>737166.3126946308</v>
+        <v>862563.1685215158</v>
       </c>
       <c r="AE5" t="n">
-        <v>1008623.47051126</v>
+        <v>1180196.980772445</v>
       </c>
       <c r="AF5" t="n">
         <v>6.709724060069804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>912361.8620975961</v>
+        <v>1067560.637344388</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2927.086660605556</v>
+        <v>3210.107389705435</v>
       </c>
       <c r="AB2" t="n">
-        <v>4004.969102990399</v>
+        <v>4392.210550538228</v>
       </c>
       <c r="AC2" t="n">
-        <v>3622.740472810284</v>
+        <v>3973.024140100918</v>
       </c>
       <c r="AD2" t="n">
-        <v>2927086.660605556</v>
+        <v>3210107.389705435</v>
       </c>
       <c r="AE2" t="n">
-        <v>4004969.102990399</v>
+        <v>4392210.550538228</v>
       </c>
       <c r="AF2" t="n">
         <v>2.810744387694565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.00833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3622740.472810284</v>
+        <v>3973024.140100918</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.604785328438</v>
+        <v>1266.810144956777</v>
       </c>
       <c r="AB3" t="n">
-        <v>1519.578463711504</v>
+        <v>1733.305528049101</v>
       </c>
       <c r="AC3" t="n">
-        <v>1374.552027876646</v>
+        <v>1567.881281161682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110604.785328438</v>
+        <v>1266810.144956777</v>
       </c>
       <c r="AE3" t="n">
-        <v>1519578.463711504</v>
+        <v>1733305.528049101</v>
       </c>
       <c r="AF3" t="n">
         <v>5.063108579612346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.65</v>
       </c>
       <c r="AH3" t="n">
-        <v>1374552.027876646</v>
+        <v>1567881.281161682</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.7795562646019</v>
+        <v>990.3577607129132</v>
       </c>
       <c r="AB4" t="n">
-        <v>1168.178854976911</v>
+        <v>1355.05117970822</v>
       </c>
       <c r="AC4" t="n">
-        <v>1056.689504607235</v>
+        <v>1225.726996943142</v>
       </c>
       <c r="AD4" t="n">
-        <v>853779.5562646019</v>
+        <v>990357.7607129132</v>
       </c>
       <c r="AE4" t="n">
-        <v>1168178.854976912</v>
+        <v>1355051.17970822</v>
       </c>
       <c r="AF4" t="n">
         <v>5.907216382456726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1056689.504607235</v>
+        <v>1225726.996943142</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>762.1166326884585</v>
+        <v>889.0334873864839</v>
       </c>
       <c r="AB5" t="n">
-        <v>1042.761599057247</v>
+        <v>1216.414838831545</v>
       </c>
       <c r="AC5" t="n">
-        <v>943.2418955683188</v>
+        <v>1100.32191386241</v>
       </c>
       <c r="AD5" t="n">
-        <v>762116.6326884584</v>
+        <v>889033.4873864839</v>
       </c>
       <c r="AE5" t="n">
-        <v>1042761.599057247</v>
+        <v>1216414.838831545</v>
       </c>
       <c r="AF5" t="n">
         <v>6.225246976056863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.7375</v>
       </c>
       <c r="AH5" t="n">
-        <v>943241.8955683188</v>
+        <v>1100321.91386241</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>763.0312022838071</v>
+        <v>889.9480569818325</v>
       </c>
       <c r="AB6" t="n">
-        <v>1044.012953525566</v>
+        <v>1217.666193299863</v>
       </c>
       <c r="AC6" t="n">
-        <v>944.3738225224682</v>
+        <v>1101.45384081656</v>
       </c>
       <c r="AD6" t="n">
-        <v>763031.2022838071</v>
+        <v>889948.0569818325</v>
       </c>
       <c r="AE6" t="n">
-        <v>1044012.953525566</v>
+        <v>1217666.193299863</v>
       </c>
       <c r="AF6" t="n">
         <v>6.233707282053481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.70416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>944373.8225224683</v>
+        <v>1101453.84081656</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1171.597547180986</v>
+        <v>1352.336994330635</v>
       </c>
       <c r="AB2" t="n">
-        <v>1603.031451288904</v>
+        <v>1850.32713654071</v>
       </c>
       <c r="AC2" t="n">
-        <v>1450.040379446663</v>
+        <v>1673.73451157971</v>
       </c>
       <c r="AD2" t="n">
-        <v>1171597.547180986</v>
+        <v>1352336.994330635</v>
       </c>
       <c r="AE2" t="n">
-        <v>1603031.451288905</v>
+        <v>1850327.13654071</v>
       </c>
       <c r="AF2" t="n">
         <v>5.491642838885661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1450040.379446663</v>
+        <v>1673734.511579711</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.2400587695066</v>
+        <v>846.4149613919062</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.8865143390785</v>
+        <v>1158.102291369094</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.7492750758813</v>
+        <v>1047.574634087601</v>
       </c>
       <c r="AD3" t="n">
-        <v>713240.0587695066</v>
+        <v>846414.9613919063</v>
       </c>
       <c r="AE3" t="n">
-        <v>975886.5143390786</v>
+        <v>1158102.291369094</v>
       </c>
       <c r="AF3" t="n">
         <v>7.311483626001328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.32083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>882749.2750758813</v>
+        <v>1047574.634087602</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.3069224517426</v>
+        <v>846.4818250741422</v>
       </c>
       <c r="AB4" t="n">
-        <v>975.9780001789312</v>
+        <v>1158.193777208947</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.8320296355797</v>
+        <v>1047.6573886473</v>
       </c>
       <c r="AD4" t="n">
-        <v>713306.9224517426</v>
+        <v>846481.8250741422</v>
       </c>
       <c r="AE4" t="n">
-        <v>975978.0001789312</v>
+        <v>1158193.777208947</v>
       </c>
       <c r="AF4" t="n">
         <v>7.327304159714399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.2625</v>
       </c>
       <c r="AH4" t="n">
-        <v>882832.0296355797</v>
+        <v>1047657.3886473</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>811.9072995728529</v>
+        <v>962.2207482447168</v>
       </c>
       <c r="AB2" t="n">
-        <v>1110.88738609767</v>
+        <v>1316.552877931851</v>
       </c>
       <c r="AC2" t="n">
-        <v>1004.865853108746</v>
+        <v>1190.902919055604</v>
       </c>
       <c r="AD2" t="n">
-        <v>811907.2995728529</v>
+        <v>962220.7482447168</v>
       </c>
       <c r="AE2" t="n">
-        <v>1110887.38609767</v>
+        <v>1316552.877931851</v>
       </c>
       <c r="AF2" t="n">
         <v>7.31499827009049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>1004865.853108746</v>
+        <v>1190902.919055604</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.9334000165666</v>
+        <v>845.9132351274881</v>
       </c>
       <c r="AB3" t="n">
-        <v>964.5209773693857</v>
+        <v>1157.415807359517</v>
       </c>
       <c r="AC3" t="n">
-        <v>872.4684490029447</v>
+        <v>1046.953667148412</v>
       </c>
       <c r="AD3" t="n">
-        <v>704933.4000165666</v>
+        <v>845913.235127488</v>
       </c>
       <c r="AE3" t="n">
-        <v>964520.9773693858</v>
+        <v>1157415.807359517</v>
       </c>
       <c r="AF3" t="n">
         <v>7.898279300643944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.75833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>872468.4490029446</v>
+        <v>1046953.667148412</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>720.4388573093705</v>
+        <v>869.3001705730267</v>
       </c>
       <c r="AB2" t="n">
-        <v>985.7362280898978</v>
+        <v>1189.414844194876</v>
       </c>
       <c r="AC2" t="n">
-        <v>891.6589459704825</v>
+        <v>1075.898760819135</v>
       </c>
       <c r="AD2" t="n">
-        <v>720438.8573093705</v>
+        <v>869300.1705730266</v>
       </c>
       <c r="AE2" t="n">
-        <v>985736.2280898979</v>
+        <v>1189414.844194876</v>
       </c>
       <c r="AF2" t="n">
         <v>8.31117053887947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.69166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>891658.9459704824</v>
+        <v>1075898.760819135</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.7132650540325</v>
+        <v>870.5745783176884</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.4799289890458</v>
+        <v>1191.158545094024</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.2362305031154</v>
+        <v>1077.476045351768</v>
       </c>
       <c r="AD3" t="n">
-        <v>721713.2650540324</v>
+        <v>870574.5783176884</v>
       </c>
       <c r="AE3" t="n">
-        <v>987479.9289890458</v>
+        <v>1191158.545094024</v>
       </c>
       <c r="AF3" t="n">
         <v>8.3307608053235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.61666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>893236.2305031153</v>
+        <v>1077476.045351768</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>831.7418520847901</v>
+        <v>1004.911125868676</v>
       </c>
       <c r="AB2" t="n">
-        <v>1138.025895883202</v>
+        <v>1374.963735963491</v>
       </c>
       <c r="AC2" t="n">
-        <v>1029.414301609485</v>
+        <v>1243.739126776858</v>
       </c>
       <c r="AD2" t="n">
-        <v>831741.8520847901</v>
+        <v>1004911.125868676</v>
       </c>
       <c r="AE2" t="n">
-        <v>1138025.895883202</v>
+        <v>1374963.735963491</v>
       </c>
       <c r="AF2" t="n">
         <v>8.834475907390182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1029414.301609485</v>
+        <v>1243739.126776858</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1644.4218309287</v>
+        <v>1856.037239738698</v>
       </c>
       <c r="AB2" t="n">
-        <v>2249.970495847734</v>
+        <v>2539.51203399452</v>
       </c>
       <c r="AC2" t="n">
-        <v>2035.23646957745</v>
+        <v>2297.144569697608</v>
       </c>
       <c r="AD2" t="n">
-        <v>1644421.8309287</v>
+        <v>1856037.239738698</v>
       </c>
       <c r="AE2" t="n">
-        <v>2249970.495847734</v>
+        <v>2539512.03399452</v>
       </c>
       <c r="AF2" t="n">
         <v>4.24357705318571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.71250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2035236.46957745</v>
+        <v>2297144.569697608</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>813.1145875373541</v>
+        <v>947.7333604206904</v>
       </c>
       <c r="AB3" t="n">
-        <v>1112.539250752486</v>
+        <v>1296.730594772575</v>
       </c>
       <c r="AC3" t="n">
-        <v>1006.360066119313</v>
+        <v>1172.9724467803</v>
       </c>
       <c r="AD3" t="n">
-        <v>813114.5875373541</v>
+        <v>947733.3604206904</v>
       </c>
       <c r="AE3" t="n">
-        <v>1112539.250752486</v>
+        <v>1296730.594772575</v>
       </c>
       <c r="AF3" t="n">
         <v>6.471498503207974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.00416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1006360.066119313</v>
+        <v>1172972.4467803</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.9574458497467</v>
+        <v>861.5078878955214</v>
       </c>
       <c r="AB4" t="n">
-        <v>994.6552485106704</v>
+        <v>1178.753099264264</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.7267476002204</v>
+        <v>1066.254557860848</v>
       </c>
       <c r="AD4" t="n">
-        <v>726957.4458497467</v>
+        <v>861507.8878955215</v>
       </c>
       <c r="AE4" t="n">
-        <v>994655.2485106704</v>
+        <v>1178753.099264264</v>
       </c>
       <c r="AF4" t="n">
         <v>6.844703619201552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>899726.7476002204</v>
+        <v>1066254.557860848</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.0206000447041</v>
+        <v>863.5710420904788</v>
       </c>
       <c r="AB5" t="n">
-        <v>997.4781471001502</v>
+        <v>1181.575997853744</v>
       </c>
       <c r="AC5" t="n">
-        <v>902.2802327102834</v>
+        <v>1068.80804297091</v>
       </c>
       <c r="AD5" t="n">
-        <v>729020.6000447042</v>
+        <v>863571.0420904788</v>
       </c>
       <c r="AE5" t="n">
-        <v>997478.1471001502</v>
+        <v>1181575.997853744</v>
       </c>
       <c r="AF5" t="n">
         <v>6.846008532194536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.475</v>
       </c>
       <c r="AH5" t="n">
-        <v>902280.2327102834</v>
+        <v>1068808.04297091</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2590.776972926887</v>
+        <v>2863.325848292204</v>
       </c>
       <c r="AB2" t="n">
-        <v>3544.815351372137</v>
+        <v>3917.728746654754</v>
       </c>
       <c r="AC2" t="n">
-        <v>3206.503149416639</v>
+        <v>3543.826213640706</v>
       </c>
       <c r="AD2" t="n">
-        <v>2590776.972926887</v>
+        <v>2863325.848292204</v>
       </c>
       <c r="AE2" t="n">
-        <v>3544815.351372137</v>
+        <v>3917728.746654754</v>
       </c>
       <c r="AF2" t="n">
         <v>3.05587306757128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.59166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3206503.149416639</v>
+        <v>3543826.213640706</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1045.864765392022</v>
+        <v>1201.6118606606</v>
       </c>
       <c r="AB3" t="n">
-        <v>1430.998312306395</v>
+        <v>1644.09835912977</v>
       </c>
       <c r="AC3" t="n">
-        <v>1294.425841798618</v>
+        <v>1487.187919240964</v>
       </c>
       <c r="AD3" t="n">
-        <v>1045864.765392022</v>
+        <v>1201611.8606606</v>
       </c>
       <c r="AE3" t="n">
-        <v>1430998.312306395</v>
+        <v>1644098.35912977</v>
       </c>
       <c r="AF3" t="n">
         <v>5.29737070157244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1294425.841798618</v>
+        <v>1487187.919240964</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>806.1548057664561</v>
+        <v>942.429243449114</v>
       </c>
       <c r="AB4" t="n">
-        <v>1103.016570289641</v>
+        <v>1289.473267930939</v>
       </c>
       <c r="AC4" t="n">
-        <v>997.7462169146767</v>
+        <v>1166.407749026707</v>
       </c>
       <c r="AD4" t="n">
-        <v>806154.8057664561</v>
+        <v>942429.243449114</v>
       </c>
       <c r="AE4" t="n">
-        <v>1103016.570289641</v>
+        <v>1289473.267930939</v>
       </c>
       <c r="AF4" t="n">
         <v>6.133756281995807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>997746.2169146767</v>
+        <v>1166407.749026707</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>751.0571217755662</v>
+        <v>887.2973940394435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1027.629488315041</v>
+        <v>1214.039439323091</v>
       </c>
       <c r="AC5" t="n">
-        <v>929.5539722372985</v>
+        <v>1098.173219149149</v>
       </c>
       <c r="AD5" t="n">
-        <v>751057.1217755663</v>
+        <v>887297.3940394435</v>
       </c>
       <c r="AE5" t="n">
-        <v>1027629.488315041</v>
+        <v>1214039.439323091</v>
       </c>
       <c r="AF5" t="n">
         <v>6.345603945458305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>929553.9722372985</v>
+        <v>1098173.219149149</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>753.4462578748294</v>
+        <v>889.6865301387068</v>
       </c>
       <c r="AB6" t="n">
-        <v>1030.898409727299</v>
+        <v>1217.308360735349</v>
       </c>
       <c r="AC6" t="n">
-        <v>932.5109123779304</v>
+        <v>1101.130159289781</v>
       </c>
       <c r="AD6" t="n">
-        <v>753446.2578748293</v>
+        <v>889686.5301387068</v>
       </c>
       <c r="AE6" t="n">
-        <v>1030898.409727299</v>
+        <v>1217308.360735349</v>
       </c>
       <c r="AF6" t="n">
         <v>6.345603945458305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>932510.9123779304</v>
+        <v>1101130.159289781</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>969.7166752851823</v>
+        <v>1186.293089225608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1326.809136005577</v>
+        <v>1623.138540235915</v>
       </c>
       <c r="AC2" t="n">
-        <v>1200.180334253522</v>
+        <v>1468.228476045048</v>
       </c>
       <c r="AD2" t="n">
-        <v>969716.6752851823</v>
+        <v>1186293.089225608</v>
       </c>
       <c r="AE2" t="n">
-        <v>1326809.136005577</v>
+        <v>1623138.540235915</v>
       </c>
       <c r="AF2" t="n">
         <v>8.551482579670005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1200180.334253523</v>
+        <v>1468228.476045048</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.2659161986563</v>
+        <v>1072.764584408623</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.202472874781</v>
+        <v>1467.803831421168</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.075780726785</v>
+        <v>1327.718693825947</v>
       </c>
       <c r="AD2" t="n">
-        <v>912265.9161986563</v>
+        <v>1072764.584408623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248202.472874781</v>
+        <v>1467803.831421168</v>
       </c>
       <c r="AF2" t="n">
         <v>6.639260261983677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.62083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129075.780726785</v>
+        <v>1327718.693825946</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>708.6953314468856</v>
+        <v>840.8315216863847</v>
       </c>
       <c r="AB3" t="n">
-        <v>969.6682179170497</v>
+        <v>1150.462782840024</v>
       </c>
       <c r="AC3" t="n">
-        <v>877.1244441369372</v>
+        <v>1040.664229530429</v>
       </c>
       <c r="AD3" t="n">
-        <v>708695.3314468856</v>
+        <v>840831.5216863847</v>
       </c>
       <c r="AE3" t="n">
-        <v>969668.2179170497</v>
+        <v>1150462.782840024</v>
       </c>
       <c r="AF3" t="n">
         <v>7.69867244597387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>877124.4441369371</v>
+        <v>1040664.229530429</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1314.262007912904</v>
+        <v>1505.225316250082</v>
       </c>
       <c r="AB2" t="n">
-        <v>1798.231260374121</v>
+        <v>2059.515683547625</v>
       </c>
       <c r="AC2" t="n">
-        <v>1626.610592717439</v>
+        <v>1862.958397258255</v>
       </c>
       <c r="AD2" t="n">
-        <v>1314262.007912904</v>
+        <v>1505225.316250082</v>
       </c>
       <c r="AE2" t="n">
-        <v>1798231.260374121</v>
+        <v>2059515.683547625</v>
       </c>
       <c r="AF2" t="n">
         <v>5.029608655562407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1626610.592717439</v>
+        <v>1862958.397258255</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.1521376662929</v>
+        <v>862.8199237275184</v>
       </c>
       <c r="AB3" t="n">
-        <v>997.6581226770387</v>
+        <v>1180.548284572538</v>
       </c>
       <c r="AC3" t="n">
-        <v>902.4430316707108</v>
+        <v>1067.878413202858</v>
       </c>
       <c r="AD3" t="n">
-        <v>729152.137666293</v>
+        <v>862819.9237275184</v>
       </c>
       <c r="AE3" t="n">
-        <v>997658.1226770387</v>
+        <v>1180548.284572538</v>
       </c>
       <c r="AF3" t="n">
         <v>7.086165921958852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>902443.0316707108</v>
+        <v>1067878.413202858</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>711.1710808430491</v>
+        <v>844.9061867119791</v>
       </c>
       <c r="AB4" t="n">
-        <v>973.0556474632356</v>
+        <v>1156.037919289577</v>
       </c>
       <c r="AC4" t="n">
-        <v>880.1885821615223</v>
+        <v>1045.707282781989</v>
       </c>
       <c r="AD4" t="n">
-        <v>711171.0808430491</v>
+        <v>844906.1867119791</v>
       </c>
       <c r="AE4" t="n">
-        <v>973055.6474632355</v>
+        <v>1156037.919289577</v>
       </c>
       <c r="AF4" t="n">
         <v>7.155597294895937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.95416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>880188.5821615222</v>
+        <v>1045707.282781989</v>
       </c>
     </row>
   </sheetData>
